--- a/results_xlsx/bez_garanta.xlsx
+++ b/results_xlsx/bez_garanta.xlsx
@@ -478,12 +478,12 @@
     <t>PVK - Mikroprocesorová technika</t>
   </si>
   <si>
+    <t>Biochemická cvičení</t>
+  </si>
+  <si>
     <t>PVK - Automatizované měřící systémy</t>
   </si>
   <si>
-    <t>Biochemická cvičení</t>
-  </si>
-  <si>
     <t>Diplomová práce z chemie</t>
   </si>
   <si>
@@ -553,24 +553,24 @@
     <t>Anglický jazyk pro doktorandy</t>
   </si>
   <si>
+    <t>SZZ - Geografie s didaktikou</t>
+  </si>
+  <si>
     <t>SZZ - matematika s didaktikou</t>
   </si>
   <si>
-    <t>SZZ - Geografie s didaktikou</t>
-  </si>
-  <si>
     <t>SZZ - biologie s didaktikou</t>
   </si>
   <si>
     <t>Biologie</t>
   </si>
   <si>
+    <t>Aplikovaná geografie - Cestovní ruch</t>
+  </si>
+  <si>
     <t>Softwarové systémy</t>
   </si>
   <si>
-    <t>Aplikovaná geografie - Cestovní ruch</t>
-  </si>
-  <si>
     <t>Aplikovaná fyzika</t>
   </si>
   <si>
@@ -601,81 +601,81 @@
     <t>SZZ - Fyzika s didaktikou pro SŠ</t>
   </si>
   <si>
+    <t>Biologie s didaktikou pro SŠ</t>
+  </si>
+  <si>
+    <t>Chemie a didaktika chemie pro SŠ</t>
+  </si>
+  <si>
     <t>Geografie krajiny a GIS</t>
   </si>
   <si>
-    <t>Biologie s didaktikou pro SŠ</t>
-  </si>
-  <si>
-    <t>Chemie a didaktika chemie pro SŠ</t>
-  </si>
-  <si>
     <t>Geografie venkova a sídel</t>
   </si>
   <si>
     <t>Regionální geografie a cestovní ruch</t>
   </si>
   <si>
+    <t>SZZ - Toxikologie a analýza škodlivin</t>
+  </si>
+  <si>
+    <t>SZZ - Reg. geografie a reg. rozvoj Česka</t>
+  </si>
+  <si>
     <t>SZZ - numerická matematika</t>
   </si>
   <si>
-    <t>SZZ - Toxikologie a analýza škodlivin</t>
-  </si>
-  <si>
-    <t>SZZ - Reg. geografie a reg. rozvoj Česka</t>
-  </si>
-  <si>
     <t>Matematika pro vzdělávání</t>
   </si>
   <si>
+    <t>Fyzika pro vzdělávání</t>
+  </si>
+  <si>
     <t>Biologie pro vzdělávání</t>
   </si>
   <si>
     <t>Geografie pro vzdělávání</t>
   </si>
   <si>
-    <t>Fyzika pro vzdělávání</t>
-  </si>
-  <si>
     <t>Chemie pro vzdělávání</t>
   </si>
   <si>
     <t>Analytická chemie</t>
   </si>
   <si>
+    <t>SZZ - Biologie</t>
+  </si>
+  <si>
     <t>Fyzika</t>
   </si>
   <si>
-    <t>SZZ - Biologie</t>
-  </si>
-  <si>
     <t>SZZ- Regionální geografie Evropy a světa</t>
   </si>
   <si>
+    <t>Toxikologie</t>
+  </si>
+  <si>
     <t>Matematika s didaktikou pro ZŠ</t>
   </si>
   <si>
-    <t>Toxikologie</t>
-  </si>
-  <si>
     <t>Matematika s didaktikou pro SŠ</t>
   </si>
   <si>
     <t>SZZ - Fyzická geografie</t>
   </si>
   <si>
+    <t>SZZ - Geografie</t>
+  </si>
+  <si>
+    <t>SZZ - Informatika</t>
+  </si>
+  <si>
+    <t>Matematika</t>
+  </si>
+  <si>
     <t>Chemie</t>
   </si>
   <si>
-    <t>SZZ - Geografie</t>
-  </si>
-  <si>
-    <t>Matematika</t>
-  </si>
-  <si>
-    <t>SZZ - Informatika</t>
-  </si>
-  <si>
     <t>Elektronika a elektrotechnika</t>
   </si>
   <si>
@@ -715,12 +715,12 @@
     <t>Ap. biolog., ekolog. a ochrana biodiver.</t>
   </si>
   <si>
+    <t>Obecná fyzika a chemie</t>
+  </si>
+  <si>
     <t>Aplikovaná chemie</t>
   </si>
   <si>
-    <t>Obecná fyzika a chemie</t>
-  </si>
-  <si>
     <t>Nanotechnologie a nanomateriály</t>
   </si>
   <si>
@@ -736,21 +736,21 @@
     <t>Učitelství biologie pro střední školy</t>
   </si>
   <si>
+    <t>Učitelství chemie pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství fyziky pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství informatiky pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství matematiky pro střední školy</t>
+  </si>
+  <si>
     <t>Učitelství geografie pro střední školy</t>
   </si>
   <si>
-    <t>Učitelství chemie pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství matematiky pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství fyziky pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství informatiky pro střední školy</t>
-  </si>
-  <si>
     <t>Teoretické základy datového inženýrství</t>
   </si>
   <si>
@@ -799,12 +799,12 @@
     <t>Chemické inženýrství</t>
   </si>
   <si>
+    <t>Geografie s didaktikou pro ZŠ</t>
+  </si>
+  <si>
     <t>Matematika s didaktikou</t>
   </si>
   <si>
-    <t>Geografie s didaktikou pro ZŠ</t>
-  </si>
-  <si>
     <t>Biologie s didaktikou</t>
   </si>
   <si>
@@ -817,13 +817,13 @@
     <t>Fyzika s didaktikou pro SŠ</t>
   </si>
   <si>
+    <t>Toxikologie a analýza škodlivin</t>
+  </si>
+  <si>
+    <t>Regionální geografie a regionální rozvoj Česka</t>
+  </si>
+  <si>
     <t>Numerická matematika</t>
-  </si>
-  <si>
-    <t>Toxikologie a analýza škodlivin</t>
-  </si>
-  <si>
-    <t>Regionální geografie a regionální rozvoj Česka</t>
   </si>
   <si>
     <t>Regionální geografie Evropy a světa</t>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>51</v>
@@ -2094,14 +2094,14 @@
         <v>154</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>51</v>
@@ -2113,7 +2113,7 @@
         <v>155</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>78</v>
@@ -2661,17 +2661,17 @@
         <v>2023</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>78</v>
@@ -2680,10 +2680,10 @@
         <v>2023</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>83</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
@@ -2851,10 +2851,10 @@
         <v>2023</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -2870,7 +2870,7 @@
         <v>2023</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>264</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>86</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>86</v>
@@ -3101,7 +3101,7 @@
         <v>192</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>91</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>91</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>91</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>94</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>94</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>94</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>95</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>95</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>95</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>96</v>
@@ -3424,14 +3424,14 @@
         <v>209</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>96</v>
@@ -3443,7 +3443,7 @@
         <v>210</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -3459,10 +3459,10 @@
         <v>2023</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>98</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>98</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>101</v>
@@ -3576,14 +3576,14 @@
         <v>216</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>101</v>
@@ -3592,17 +3592,17 @@
         <v>2023</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>101</v>
@@ -3611,17 +3611,17 @@
         <v>2023</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>101</v>
@@ -3630,17 +3630,17 @@
         <v>2023</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>101</v>
@@ -3649,17 +3649,17 @@
         <v>2023</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>101</v>
@@ -3671,7 +3671,7 @@
         <v>219</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -3820,10 +3820,10 @@
         <v>2023</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -3839,17 +3839,17 @@
         <v>2023</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>108</v>
@@ -3858,17 +3858,17 @@
         <v>2023</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>108</v>
@@ -3877,10 +3877,10 @@
         <v>2023</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -3991,10 +3991,10 @@
         <v>2023</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>116</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>116</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>120</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>120</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>120</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>120</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>120</v>

--- a/results_xlsx/bez_garanta.xlsx
+++ b/results_xlsx/bez_garanta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="287">
   <si>
     <t>katedra</t>
   </si>
@@ -85,6 +85,12 @@
     <t>B310</t>
   </si>
   <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>B315</t>
+  </si>
+  <si>
     <t>BK310</t>
   </si>
   <si>
@@ -238,6 +244,9 @@
     <t>NME</t>
   </si>
   <si>
+    <t>P115</t>
+  </si>
+  <si>
     <t>P507</t>
   </si>
   <si>
@@ -412,6 +421,12 @@
     <t>Bakalářská práce</t>
   </si>
   <si>
+    <t>Virtuální a rozšířená realita</t>
+  </si>
+  <si>
+    <t>Monitor. vyb. prvků atmosf.a hydrosf. II</t>
+  </si>
+  <si>
     <t>Odborná praxe</t>
   </si>
   <si>
@@ -484,12 +499,12 @@
     <t>PVK - Automatizované měřící systémy</t>
   </si>
   <si>
+    <t>Diplomová práce fyziky</t>
+  </si>
+  <si>
     <t>Diplomová práce z chemie</t>
   </si>
   <si>
-    <t>Diplomová práce fyziky</t>
-  </si>
-  <si>
     <t>Obecná botanika</t>
   </si>
   <si>
@@ -532,6 +547,9 @@
     <t>Numerické metody</t>
   </si>
   <si>
+    <t>Seminář z matematiky</t>
+  </si>
+  <si>
     <t>PVK - Fyzikálně chemická cvičení B</t>
   </si>
   <si>
@@ -553,111 +571,111 @@
     <t>Anglický jazyk pro doktorandy</t>
   </si>
   <si>
+    <t>SZZ - matematika s didaktikou</t>
+  </si>
+  <si>
+    <t>SZZ - biologie s didaktikou</t>
+  </si>
+  <si>
     <t>SZZ - Geografie s didaktikou</t>
   </si>
   <si>
-    <t>SZZ - matematika s didaktikou</t>
-  </si>
-  <si>
-    <t>SZZ - biologie s didaktikou</t>
-  </si>
-  <si>
     <t>Biologie</t>
   </si>
   <si>
+    <t>Softwarové systémy</t>
+  </si>
+  <si>
     <t>Aplikovaná geografie - Cestovní ruch</t>
   </si>
   <si>
-    <t>Softwarové systémy</t>
-  </si>
-  <si>
     <t>Aplikovaná fyzika</t>
   </si>
   <si>
+    <t>Aplikovaná geografie - Krajina a GIS</t>
+  </si>
+  <si>
     <t>Nanotechnologie</t>
   </si>
   <si>
     <t>Informační technologie</t>
   </si>
   <si>
-    <t>Aplikovaná geografie - Krajina a GIS</t>
-  </si>
-  <si>
     <t>Matematika s aplikacemi</t>
   </si>
   <si>
+    <t>Počítačové modelování</t>
+  </si>
+  <si>
     <t>SZZ - Evropská integrace a EU</t>
   </si>
   <si>
-    <t>Počítačové modelování</t>
-  </si>
-  <si>
     <t>SZZ - Chemie</t>
   </si>
   <si>
     <t>Statistika a zpracování dat</t>
   </si>
   <si>
+    <t>Geografie krajiny a GIS</t>
+  </si>
+  <si>
+    <t>Chemie a didaktika chemie pro SŠ</t>
+  </si>
+  <si>
+    <t>Biologie s didaktikou pro SŠ</t>
+  </si>
+  <si>
     <t>SZZ - Fyzika s didaktikou pro SŠ</t>
   </si>
   <si>
-    <t>Biologie s didaktikou pro SŠ</t>
-  </si>
-  <si>
-    <t>Chemie a didaktika chemie pro SŠ</t>
-  </si>
-  <si>
-    <t>Geografie krajiny a GIS</t>
-  </si>
-  <si>
     <t>Geografie venkova a sídel</t>
   </si>
   <si>
     <t>Regionální geografie a cestovní ruch</t>
   </si>
   <si>
+    <t>SZZ - Reg. geografie a reg. rozvoj Česka</t>
+  </si>
+  <si>
+    <t>SZZ - numerická matematika</t>
+  </si>
+  <si>
     <t>SZZ - Toxikologie a analýza škodlivin</t>
   </si>
   <si>
-    <t>SZZ - Reg. geografie a reg. rozvoj Česka</t>
-  </si>
-  <si>
-    <t>SZZ - numerická matematika</t>
+    <t>Fyzika pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Geografie pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Chemie pro vzdělávání</t>
   </si>
   <si>
     <t>Matematika pro vzdělávání</t>
   </si>
   <si>
-    <t>Fyzika pro vzdělávání</t>
-  </si>
-  <si>
     <t>Biologie pro vzdělávání</t>
   </si>
   <si>
-    <t>Geografie pro vzdělávání</t>
-  </si>
-  <si>
-    <t>Chemie pro vzdělávání</t>
+    <t>SZZ - Biologie</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
   </si>
   <si>
     <t>Analytická chemie</t>
   </si>
   <si>
-    <t>SZZ - Biologie</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
     <t>SZZ- Regionální geografie Evropy a světa</t>
   </si>
   <si>
+    <t>Matematika s didaktikou pro ZŠ</t>
+  </si>
+  <si>
     <t>Toxikologie</t>
   </si>
   <si>
-    <t>Matematika s didaktikou pro ZŠ</t>
-  </si>
-  <si>
     <t>Matematika s didaktikou pro SŠ</t>
   </si>
   <si>
@@ -721,22 +739,28 @@
     <t>Aplikovaná chemie</t>
   </si>
   <si>
+    <t>Syntéza, technologie a analýza</t>
+  </si>
+  <si>
     <t>Nanotechnologie a nanomateriály</t>
   </si>
   <si>
-    <t>Syntéza, technologie a analýza</t>
-  </si>
-  <si>
     <t>Aplikovaná informatika: povinný základ</t>
   </si>
   <si>
     <t>Sociální geografie a územní rozvoj</t>
   </si>
   <si>
+    <t>Učitelství chemie pro střední školy</t>
+  </si>
+  <si>
     <t>Učitelství biologie pro střední školy</t>
   </si>
   <si>
-    <t>Učitelství chemie pro střední školy</t>
+    <t>Učitelství matematiky pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství geografie pro střední školy</t>
   </si>
   <si>
     <t>Učitelství fyziky pro střední školy</t>
@@ -745,12 +769,6 @@
     <t>Učitelství informatiky pro střední školy</t>
   </si>
   <si>
-    <t>Učitelství matematiky pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství geografie pro střední školy</t>
-  </si>
-  <si>
     <t>Teoretické základy datového inženýrství</t>
   </si>
   <si>
@@ -772,6 +790,9 @@
     <t>Aplikace ATMEL A</t>
   </si>
   <si>
+    <t>Monitoring vybraných prvků atmosféry a hydrosféry II</t>
+  </si>
+  <si>
     <t>Evoluční psychologie člověka</t>
   </si>
   <si>
@@ -799,15 +820,15 @@
     <t>Chemické inženýrství</t>
   </si>
   <si>
+    <t>Matematika s didaktikou</t>
+  </si>
+  <si>
+    <t>Biologie s didaktikou</t>
+  </si>
+  <si>
     <t>Geografie s didaktikou pro ZŠ</t>
   </si>
   <si>
-    <t>Matematika s didaktikou</t>
-  </si>
-  <si>
-    <t>Biologie s didaktikou</t>
-  </si>
-  <si>
     <t>Geografie s didaktikou pro SŠ</t>
   </si>
   <si>
@@ -817,15 +838,15 @@
     <t>Fyzika s didaktikou pro SŠ</t>
   </si>
   <si>
+    <t>Regionální geografie a regionální rozvoj Česka</t>
+  </si>
+  <si>
+    <t>Numerická matematika</t>
+  </si>
+  <si>
     <t>Toxikologie a analýza škodlivin</t>
   </si>
   <si>
-    <t>Regionální geografie a regionální rozvoj Česka</t>
-  </si>
-  <si>
-    <t>Numerická matematika</t>
-  </si>
-  <si>
     <t>Regionální geografie Evropy a světa</t>
   </si>
   <si>
@@ -850,10 +871,10 @@
     <t>Aplikovaná biologie, ekologie a ochrana biodiverzity</t>
   </si>
   <si>
+    <t>Syntéza, technologie a analýza chemických látek a materiálů</t>
+  </si>
+  <si>
     <t>Nanotechnologie a nanomateriály, jejich příprava a charakterizace</t>
-  </si>
-  <si>
-    <t>Syntéza, technologie a analýza chemických látek a materiálů</t>
   </si>
 </sst>
 </file>
@@ -915,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:G164" totalsRowShown="0">
-  <autoFilter ref="A1:G164"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:G167" totalsRowShown="0">
+  <autoFilter ref="A1:G167"/>
   <tableColumns count="7">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1215,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,10 +1276,10 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1274,10 +1295,10 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1293,10 +1314,10 @@
         <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1312,10 +1333,10 @@
         <v>2023</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1331,10 +1352,10 @@
         <v>2023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1350,10 +1371,10 @@
         <v>2023</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1369,10 +1390,10 @@
         <v>2023</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1388,17 +1409,17 @@
         <v>2023</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -1407,17 +1428,17 @@
         <v>2023</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -1426,17 +1447,17 @@
         <v>2023</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -1445,226 +1466,226 @@
         <v>2023</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>2023</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <v>2023</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>2023</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
         <v>2023</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
         <v>2023</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
         <v>2023</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>2023</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
         <v>2023</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
         <v>2023</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <v>2023</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
         <v>2023</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
@@ -1673,17 +1694,17 @@
         <v>2023</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>32</v>
@@ -1692,17 +1713,17 @@
         <v>2023</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -1711,55 +1732,55 @@
         <v>2023</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2">
         <v>2023</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <v>2023</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
@@ -1768,17 +1789,17 @@
         <v>2023</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
@@ -1787,10 +1808,10 @@
         <v>2023</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1806,10 +1827,10 @@
         <v>2023</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1825,17 +1846,17 @@
         <v>2023</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -1844,17 +1865,17 @@
         <v>2023</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>40</v>
@@ -1863,17 +1884,17 @@
         <v>2023</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>41</v>
@@ -1882,10 +1903,10 @@
         <v>2023</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1901,10 +1922,10 @@
         <v>2023</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1920,10 +1941,10 @@
         <v>2023</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1939,17 +1960,17 @@
         <v>2023</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>45</v>
@@ -1958,10 +1979,10 @@
         <v>2023</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1971,35 +1992,35 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2">
         <v>2023</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2">
         <v>2023</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2015,17 +2036,17 @@
         <v>2023</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>48</v>
@@ -2034,10 +2055,10 @@
         <v>2023</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2053,17 +2074,17 @@
         <v>2023</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>50</v>
@@ -2072,17 +2093,17 @@
         <v>2023</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>51</v>
@@ -2091,10 +2112,10 @@
         <v>2023</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2104,16 +2125,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2">
         <v>2023</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2123,16 +2144,16 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2">
         <v>2023</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2142,42 +2163,42 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2">
         <v>2023</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2">
         <v>2023</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>54</v>
@@ -2186,17 +2207,17 @@
         <v>2023</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>55</v>
@@ -2205,17 +2226,17 @@
         <v>2023</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>56</v>
@@ -2224,10 +2245,10 @@
         <v>2023</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2243,10 +2264,10 @@
         <v>2023</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2262,17 +2283,17 @@
         <v>2023</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>59</v>
@@ -2281,17 +2302,17 @@
         <v>2023</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>60</v>
@@ -2300,17 +2321,17 @@
         <v>2023</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>61</v>
@@ -2338,10 +2359,10 @@
         <v>2023</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2357,17 +2378,17 @@
         <v>2023</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>64</v>
@@ -2376,17 +2397,17 @@
         <v>2023</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>65</v>
@@ -2395,17 +2416,17 @@
         <v>2023</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>66</v>
@@ -2414,17 +2435,17 @@
         <v>2023</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>67</v>
@@ -2433,10 +2454,10 @@
         <v>2023</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -2452,10 +2473,10 @@
         <v>2023</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -2471,17 +2492,17 @@
         <v>2023</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>70</v>
@@ -2490,17 +2511,17 @@
         <v>2023</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>71</v>
@@ -2509,17 +2530,17 @@
         <v>2023</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>72</v>
@@ -2528,55 +2549,55 @@
         <v>2023</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="2">
         <v>2023</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" s="2">
         <v>2023</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>74</v>
@@ -2585,17 +2606,17 @@
         <v>2023</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>75</v>
@@ -2604,10 +2625,10 @@
         <v>2023</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2623,10 +2644,10 @@
         <v>2023</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -2642,17 +2663,17 @@
         <v>2023</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>78</v>
@@ -2661,48 +2682,48 @@
         <v>2023</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2">
         <v>2023</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2">
         <v>2023</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2712,16 +2733,16 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2">
         <v>2023</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2737,17 +2758,17 @@
         <v>2023</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>82</v>
@@ -2756,86 +2777,86 @@
         <v>2023</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="2">
         <v>2023</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2">
         <v>2023</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2">
         <v>2023</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2">
         <v>2023</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -2845,54 +2866,54 @@
         <v>12</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2">
         <v>2023</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2">
         <v>2023</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2">
         <v>2023</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2902,16 +2923,16 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2">
         <v>2023</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -2921,263 +2942,263 @@
         <v>7</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2">
         <v>2023</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2">
         <v>2023</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2">
         <v>2023</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2">
         <v>2023</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2">
         <v>2023</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2">
         <v>2023</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2">
         <v>2023</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2">
         <v>2023</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2">
         <v>2023</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2">
         <v>2023</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2">
         <v>2023</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2">
         <v>2023</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2">
         <v>2023</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2">
         <v>2023</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -3187,61 +3208,61 @@
         <v>7</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2">
         <v>2023</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2">
         <v>2023</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2">
         <v>2023</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>94</v>
@@ -3250,10 +3271,10 @@
         <v>2023</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -3263,54 +3284,54 @@
         <v>7</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2">
         <v>2023</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2">
         <v>2023</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2">
         <v>2023</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -3320,73 +3341,73 @@
         <v>8</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2">
         <v>2023</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C112" s="2">
         <v>2023</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C113" s="2">
         <v>2023</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C114" s="2">
         <v>2023</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -3396,92 +3417,92 @@
         <v>10</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C115" s="2">
         <v>2023</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2">
         <v>2023</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2">
         <v>2023</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2">
         <v>2023</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2">
         <v>2023</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -3491,80 +3512,80 @@
         <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2">
         <v>2023</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C121" s="2">
         <v>2023</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2">
         <v>2023</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2">
         <v>2023</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>101</v>
@@ -3573,207 +3594,207 @@
         <v>2023</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2">
         <v>2023</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2">
         <v>2023</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2">
         <v>2023</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2">
         <v>2023</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C129" s="2">
         <v>2023</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C130" s="2">
         <v>2023</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C131" s="2">
         <v>2023</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C132" s="2">
         <v>2023</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C133" s="2">
         <v>2023</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2">
         <v>2023</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>105</v>
@@ -3782,17 +3803,17 @@
         <v>2023</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>106</v>
@@ -3801,17 +3822,17 @@
         <v>2023</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>107</v>
@@ -3820,48 +3841,48 @@
         <v>2023</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C138" s="2">
         <v>2023</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C139" s="2">
         <v>2023</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -3871,61 +3892,61 @@
         <v>8</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C140" s="2">
         <v>2023</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2">
         <v>2023</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2">
         <v>2023</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>111</v>
@@ -3934,10 +3955,10 @@
         <v>2023</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -3953,17 +3974,17 @@
         <v>2023</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>113</v>
@@ -3972,67 +3993,67 @@
         <v>2023</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C146" s="2">
         <v>2023</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C147" s="2">
         <v>2023</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C148" s="2">
         <v>2023</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -4042,16 +4063,16 @@
         <v>9</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C149" s="2">
         <v>2023</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -4061,118 +4082,118 @@
         <v>8</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C150" s="2">
         <v>2023</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C151" s="2">
         <v>2023</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C152" s="2">
         <v>2023</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C153" s="2">
         <v>2023</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C154" s="2">
         <v>2023</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C155" s="2">
         <v>2023</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>120</v>
@@ -4181,143 +4202,143 @@
         <v>2023</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C157" s="2">
         <v>2023</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C158" s="2">
         <v>2023</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C159" s="2">
         <v>2023</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C160" s="2">
         <v>2023</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2">
         <v>2023</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2">
         <v>2023</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2">
         <v>2023</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -4333,13 +4354,70 @@
         <v>2023</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C165" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results_xlsx/bez_garanta.xlsx
+++ b/results_xlsx/bez_garanta.xlsx
@@ -475,12 +475,12 @@
     <t>Úvod do molekulárních simulací</t>
   </si>
   <si>
+    <t>Bakalářská práce z fyziky</t>
+  </si>
+  <si>
     <t>Bakalářská práce z chemie</t>
   </si>
   <si>
-    <t>Bakalářská práce z fyziky</t>
-  </si>
-  <si>
     <t>PVK - Elektronika II</t>
   </si>
   <si>
@@ -493,18 +493,18 @@
     <t>PVK - Mikroprocesorová technika</t>
   </si>
   <si>
+    <t>PVK - Automatizované měřící systémy</t>
+  </si>
+  <si>
     <t>Biochemická cvičení</t>
   </si>
   <si>
-    <t>PVK - Automatizované měřící systémy</t>
+    <t>Diplomová práce z chemie</t>
   </si>
   <si>
     <t>Diplomová práce fyziky</t>
   </si>
   <si>
-    <t>Diplomová práce z chemie</t>
-  </si>
-  <si>
     <t>Obecná botanika</t>
   </si>
   <si>
@@ -571,60 +571,60 @@
     <t>Anglický jazyk pro doktorandy</t>
   </si>
   <si>
+    <t>SZZ - biologie s didaktikou</t>
+  </si>
+  <si>
+    <t>SZZ - Geografie s didaktikou</t>
+  </si>
+  <si>
     <t>SZZ - matematika s didaktikou</t>
   </si>
   <si>
-    <t>SZZ - biologie s didaktikou</t>
-  </si>
-  <si>
-    <t>SZZ - Geografie s didaktikou</t>
-  </si>
-  <si>
     <t>Biologie</t>
   </si>
   <si>
     <t>Softwarové systémy</t>
   </si>
   <si>
+    <t>Aplikovaná fyzika</t>
+  </si>
+  <si>
     <t>Aplikovaná geografie - Cestovní ruch</t>
   </si>
   <si>
-    <t>Aplikovaná fyzika</t>
+    <t>Nanotechnologie</t>
+  </si>
+  <si>
+    <t>Informační technologie</t>
   </si>
   <si>
     <t>Aplikovaná geografie - Krajina a GIS</t>
   </si>
   <si>
-    <t>Nanotechnologie</t>
-  </si>
-  <si>
-    <t>Informační technologie</t>
-  </si>
-  <si>
     <t>Matematika s aplikacemi</t>
   </si>
   <si>
+    <t>SZZ - Evropská integrace a EU</t>
+  </si>
+  <si>
     <t>Počítačové modelování</t>
   </si>
   <si>
-    <t>SZZ - Evropská integrace a EU</t>
-  </si>
-  <si>
     <t>SZZ - Chemie</t>
   </si>
   <si>
     <t>Statistika a zpracování dat</t>
   </si>
   <si>
+    <t>Biologie s didaktikou pro SŠ</t>
+  </si>
+  <si>
+    <t>Chemie a didaktika chemie pro SŠ</t>
+  </si>
+  <si>
     <t>Geografie krajiny a GIS</t>
   </si>
   <si>
-    <t>Chemie a didaktika chemie pro SŠ</t>
-  </si>
-  <si>
-    <t>Biologie s didaktikou pro SŠ</t>
-  </si>
-  <si>
     <t>SZZ - Fyzika s didaktikou pro SŠ</t>
   </si>
   <si>
@@ -634,28 +634,31 @@
     <t>Regionální geografie a cestovní ruch</t>
   </si>
   <si>
+    <t>SZZ - numerická matematika</t>
+  </si>
+  <si>
     <t>SZZ - Reg. geografie a reg. rozvoj Česka</t>
   </si>
   <si>
-    <t>SZZ - numerická matematika</t>
-  </si>
-  <si>
     <t>SZZ - Toxikologie a analýza škodlivin</t>
   </si>
   <si>
+    <t>Geografie pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Chemie pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Matematika pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Biologie pro vzdělávání</t>
+  </si>
+  <si>
     <t>Fyzika pro vzdělávání</t>
   </si>
   <si>
-    <t>Geografie pro vzdělávání</t>
-  </si>
-  <si>
-    <t>Chemie pro vzdělávání</t>
-  </si>
-  <si>
-    <t>Matematika pro vzdělávání</t>
-  </si>
-  <si>
-    <t>Biologie pro vzdělávání</t>
+    <t>Analytická chemie</t>
   </si>
   <si>
     <t>SZZ - Biologie</t>
@@ -664,18 +667,15 @@
     <t>Fyzika</t>
   </si>
   <si>
-    <t>Analytická chemie</t>
-  </si>
-  <si>
     <t>SZZ- Regionální geografie Evropy a světa</t>
   </si>
   <si>
+    <t>Toxikologie</t>
+  </si>
+  <si>
     <t>Matematika s didaktikou pro ZŠ</t>
   </si>
   <si>
-    <t>Toxikologie</t>
-  </si>
-  <si>
     <t>Matematika s didaktikou pro SŠ</t>
   </si>
   <si>
@@ -688,21 +688,21 @@
     <t>SZZ - Informatika</t>
   </si>
   <si>
+    <t>Chemie</t>
+  </si>
+  <si>
     <t>Matematika</t>
   </si>
   <si>
-    <t>Chemie</t>
+    <t>Matematická informatika</t>
+  </si>
+  <si>
+    <t>SZZ - Obecná geografie</t>
   </si>
   <si>
     <t>Elektronika a elektrotechnika</t>
   </si>
   <si>
-    <t>Matematická informatika</t>
-  </si>
-  <si>
-    <t>SZZ - Obecná geografie</t>
-  </si>
-  <si>
     <t>SZZ - Sociální geografie</t>
   </si>
   <si>
@@ -751,24 +751,24 @@
     <t>Sociální geografie a územní rozvoj</t>
   </si>
   <si>
+    <t>Učitelství biologie pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství fyziky pro střední školy</t>
+  </si>
+  <si>
     <t>Učitelství chemie pro střední školy</t>
   </si>
   <si>
-    <t>Učitelství biologie pro střední školy</t>
+    <t>Učitelství geografie pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství informatiky pro střední školy</t>
   </si>
   <si>
     <t>Učitelství matematiky pro střední školy</t>
   </si>
   <si>
-    <t>Učitelství geografie pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství fyziky pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství informatiky pro střední školy</t>
-  </si>
-  <si>
     <t>Teoretické základy datového inženýrství</t>
   </si>
   <si>
@@ -820,15 +820,15 @@
     <t>Chemické inženýrství</t>
   </si>
   <si>
+    <t>Biologie s didaktikou</t>
+  </si>
+  <si>
+    <t>Geografie s didaktikou pro ZŠ</t>
+  </si>
+  <si>
     <t>Matematika s didaktikou</t>
   </si>
   <si>
-    <t>Biologie s didaktikou</t>
-  </si>
-  <si>
-    <t>Geografie s didaktikou pro ZŠ</t>
-  </si>
-  <si>
     <t>Geografie s didaktikou pro SŠ</t>
   </si>
   <si>
@@ -838,10 +838,10 @@
     <t>Fyzika s didaktikou pro SŠ</t>
   </si>
   <si>
+    <t>Numerická matematika</t>
+  </si>
+  <si>
     <t>Regionální geografie a regionální rozvoj Česka</t>
-  </si>
-  <si>
-    <t>Numerická matematika</t>
   </si>
   <si>
     <t>Toxikologie a analýza škodlivin</t>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>35</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>47</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>47</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>53</v>
@@ -2153,14 +2153,14 @@
         <v>159</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>53</v>
@@ -2172,14 +2172,14 @@
         <v>160</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>54</v>
@@ -2191,14 +2191,14 @@
         <v>161</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>54</v>
@@ -2210,7 +2210,7 @@
         <v>162</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>81</v>
@@ -2739,17 +2739,17 @@
         <v>2023</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>81</v>
@@ -2758,10 +2758,10 @@
         <v>2023</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>85</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>86</v>
@@ -2929,17 +2929,17 @@
         <v>2023</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>87</v>
@@ -2951,14 +2951,14 @@
         <v>187</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>87</v>
@@ -2967,10 +2967,10 @@
         <v>2023</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>89</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>89</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>90</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>90</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>90</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>92</v>
@@ -3141,14 +3141,14 @@
         <v>196</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>92</v>
@@ -3160,7 +3160,7 @@
         <v>197</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -3179,7 +3179,7 @@
         <v>198</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>94</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>94</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>97</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>97</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>98</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>98</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>98</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>98</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>98</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>99</v>
@@ -3483,14 +3483,14 @@
         <v>214</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>99</v>
@@ -3502,14 +3502,14 @@
         <v>215</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>99</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>100</v>
@@ -3537,17 +3537,17 @@
         <v>2023</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>100</v>
@@ -3556,17 +3556,17 @@
         <v>2023</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>101</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>101</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>104</v>
@@ -3651,17 +3651,17 @@
         <v>2023</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>104</v>
@@ -3670,17 +3670,17 @@
         <v>2023</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>104</v>
@@ -3689,17 +3689,17 @@
         <v>2023</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>104</v>
@@ -3708,17 +3708,17 @@
         <v>2023</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>104</v>
@@ -3727,17 +3727,17 @@
         <v>2023</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>104</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>105</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>105</v>
@@ -3787,14 +3787,14 @@
         <v>227</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>105</v>
@@ -3806,7 +3806,7 @@
         <v>228</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>110</v>
@@ -3898,17 +3898,17 @@
         <v>2023</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>110</v>
@@ -3917,17 +3917,17 @@
         <v>2023</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>111</v>
@@ -3936,17 +3936,17 @@
         <v>2023</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>111</v>
@@ -3955,10 +3955,10 @@
         <v>2023</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -4050,10 +4050,10 @@
         <v>2023</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>117</v>
@@ -4088,17 +4088,17 @@
         <v>2023</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>117</v>
@@ -4107,10 +4107,10 @@
         <v>2023</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>123</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>123</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>123</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>123</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>123</v>

--- a/results_xlsx/bez_garanta.xlsx
+++ b/results_xlsx/bez_garanta.xlsx
@@ -475,12 +475,12 @@
     <t>Úvod do molekulárních simulací</t>
   </si>
   <si>
+    <t>Bakalářská práce z chemie</t>
+  </si>
+  <si>
     <t>Bakalářská práce z fyziky</t>
   </si>
   <si>
-    <t>Bakalářská práce z chemie</t>
-  </si>
-  <si>
     <t>PVK - Elektronika II</t>
   </si>
   <si>
@@ -499,12 +499,12 @@
     <t>Biochemická cvičení</t>
   </si>
   <si>
+    <t>Diplomová práce fyziky</t>
+  </si>
+  <si>
     <t>Diplomová práce z chemie</t>
   </si>
   <si>
-    <t>Diplomová práce fyziky</t>
-  </si>
-  <si>
     <t>Obecná botanika</t>
   </si>
   <si>
@@ -574,33 +574,33 @@
     <t>SZZ - biologie s didaktikou</t>
   </si>
   <si>
+    <t>SZZ - matematika s didaktikou</t>
+  </si>
+  <si>
     <t>SZZ - Geografie s didaktikou</t>
   </si>
   <si>
-    <t>SZZ - matematika s didaktikou</t>
-  </si>
-  <si>
     <t>Biologie</t>
   </si>
   <si>
+    <t>Aplikovaná fyzika</t>
+  </si>
+  <si>
+    <t>Aplikovaná geografie - Cestovní ruch</t>
+  </si>
+  <si>
     <t>Softwarové systémy</t>
   </si>
   <si>
-    <t>Aplikovaná fyzika</t>
-  </si>
-  <si>
-    <t>Aplikovaná geografie - Cestovní ruch</t>
+    <t>Aplikovaná geografie - Krajina a GIS</t>
+  </si>
+  <si>
+    <t>Informační technologie</t>
   </si>
   <si>
     <t>Nanotechnologie</t>
   </si>
   <si>
-    <t>Informační technologie</t>
-  </si>
-  <si>
-    <t>Aplikovaná geografie - Krajina a GIS</t>
-  </si>
-  <si>
     <t>Matematika s aplikacemi</t>
   </si>
   <si>
@@ -634,36 +634,36 @@
     <t>Regionální geografie a cestovní ruch</t>
   </si>
   <si>
+    <t>SZZ - Reg. geografie a reg. rozvoj Česka</t>
+  </si>
+  <si>
+    <t>SZZ - Toxikologie a analýza škodlivin</t>
+  </si>
+  <si>
     <t>SZZ - numerická matematika</t>
   </si>
   <si>
-    <t>SZZ - Reg. geografie a reg. rozvoj Česka</t>
-  </si>
-  <si>
-    <t>SZZ - Toxikologie a analýza škodlivin</t>
+    <t>Chemie pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Fyzika pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Biologie pro vzdělávání</t>
   </si>
   <si>
     <t>Geografie pro vzdělávání</t>
   </si>
   <si>
-    <t>Chemie pro vzdělávání</t>
-  </si>
-  <si>
     <t>Matematika pro vzdělávání</t>
   </si>
   <si>
-    <t>Biologie pro vzdělávání</t>
-  </si>
-  <si>
-    <t>Fyzika pro vzdělávání</t>
+    <t>SZZ - Biologie</t>
   </si>
   <si>
     <t>Analytická chemie</t>
   </si>
   <si>
-    <t>SZZ - Biologie</t>
-  </si>
-  <si>
     <t>Fyzika</t>
   </si>
   <si>
@@ -682,27 +682,27 @@
     <t>SZZ - Fyzická geografie</t>
   </si>
   <si>
+    <t>SZZ - Informatika</t>
+  </si>
+  <si>
+    <t>Matematika</t>
+  </si>
+  <si>
     <t>SZZ - Geografie</t>
   </si>
   <si>
-    <t>SZZ - Informatika</t>
-  </si>
-  <si>
     <t>Chemie</t>
   </si>
   <si>
-    <t>Matematika</t>
-  </si>
-  <si>
     <t>Matematická informatika</t>
   </si>
   <si>
+    <t>Elektronika a elektrotechnika</t>
+  </si>
+  <si>
     <t>SZZ - Obecná geografie</t>
   </si>
   <si>
-    <t>Elektronika a elektrotechnika</t>
-  </si>
-  <si>
     <t>SZZ - Sociální geografie</t>
   </si>
   <si>
@@ -739,36 +739,36 @@
     <t>Aplikovaná chemie</t>
   </si>
   <si>
+    <t>Nanotechnologie a nanomateriály</t>
+  </si>
+  <si>
     <t>Syntéza, technologie a analýza</t>
   </si>
   <si>
-    <t>Nanotechnologie a nanomateriály</t>
-  </si>
-  <si>
     <t>Aplikovaná informatika: povinný základ</t>
   </si>
   <si>
     <t>Sociální geografie a územní rozvoj</t>
   </si>
   <si>
+    <t>Učitelství geografie pro střední školy</t>
+  </si>
+  <si>
     <t>Učitelství biologie pro střední školy</t>
   </si>
   <si>
+    <t>Učitelství matematiky pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství informatiky pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství chemie pro střední školy</t>
+  </si>
+  <si>
     <t>Učitelství fyziky pro střední školy</t>
   </si>
   <si>
-    <t>Učitelství chemie pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství geografie pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství informatiky pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství matematiky pro střední školy</t>
-  </si>
-  <si>
     <t>Teoretické základy datového inženýrství</t>
   </si>
   <si>
@@ -823,12 +823,12 @@
     <t>Biologie s didaktikou</t>
   </si>
   <si>
+    <t>Matematika s didaktikou</t>
+  </si>
+  <si>
     <t>Geografie s didaktikou pro ZŠ</t>
   </si>
   <si>
-    <t>Matematika s didaktikou</t>
-  </si>
-  <si>
     <t>Geografie s didaktikou pro SŠ</t>
   </si>
   <si>
@@ -838,27 +838,27 @@
     <t>Fyzika s didaktikou pro SŠ</t>
   </si>
   <si>
+    <t>Regionální geografie a regionální rozvoj Česka</t>
+  </si>
+  <si>
+    <t>Toxikologie a analýza škodlivin</t>
+  </si>
+  <si>
     <t>Numerická matematika</t>
   </si>
   <si>
-    <t>Regionální geografie a regionální rozvoj Česka</t>
-  </si>
-  <si>
-    <t>Toxikologie a analýza škodlivin</t>
-  </si>
-  <si>
     <t>Regionální geografie Evropy a světa</t>
   </si>
   <si>
     <t>Fyzická geografie</t>
   </si>
   <si>
+    <t>Informatika</t>
+  </si>
+  <si>
     <t>Geografie</t>
   </si>
   <si>
-    <t>Informatika</t>
-  </si>
-  <si>
     <t>Obecná geografie</t>
   </si>
   <si>
@@ -871,10 +871,10 @@
     <t>Aplikovaná biologie, ekologie a ochrana biodiverzity</t>
   </si>
   <si>
+    <t>Nanotechnologie a nanomateriály, jejich příprava a charakterizace</t>
+  </si>
+  <si>
     <t>Syntéza, technologie a analýza chemických látek a materiálů</t>
-  </si>
-  <si>
-    <t>Nanotechnologie a nanomateriály, jejich příprava a charakterizace</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>47</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>47</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>54</v>
@@ -2191,14 +2191,14 @@
         <v>161</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>54</v>
@@ -2210,7 +2210,7 @@
         <v>162</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2739,10 +2739,10 @@
         <v>2023</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>85</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>86</v>
@@ -2948,10 +2948,10 @@
         <v>2023</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -2967,7 +2967,7 @@
         <v>2023</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>271</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>89</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>89</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>89</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>90</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>90</v>
@@ -3179,7 +3179,7 @@
         <v>198</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>97</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>97</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>97</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>98</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>98</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>98</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>98</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>98</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>99</v>
@@ -3483,14 +3483,14 @@
         <v>214</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>99</v>
@@ -3502,7 +3502,7 @@
         <v>215</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>100</v>
@@ -3537,17 +3537,17 @@
         <v>2023</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>100</v>
@@ -3556,10 +3556,10 @@
         <v>2023</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>104</v>
@@ -3651,10 +3651,10 @@
         <v>2023</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>104</v>
@@ -3689,17 +3689,17 @@
         <v>2023</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>104</v>
@@ -3711,14 +3711,14 @@
         <v>223</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>104</v>
@@ -3730,14 +3730,14 @@
         <v>224</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>104</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>105</v>
@@ -3787,14 +3787,14 @@
         <v>227</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>105</v>
@@ -3806,7 +3806,7 @@
         <v>228</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3898,10 +3898,10 @@
         <v>2023</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>116</v>
@@ -4050,17 +4050,17 @@
         <v>2023</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>116</v>
@@ -4069,10 +4069,10 @@
         <v>2023</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>120</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>120</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>123</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>123</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>123</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>123</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>123</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>123</v>

--- a/results_xlsx/bez_garanta.xlsx
+++ b/results_xlsx/bez_garanta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="287">
   <si>
     <t>katedra</t>
   </si>
@@ -35,12 +35,855 @@
   </si>
   <si>
     <t>garantiSPodily</t>
+  </si>
+  <si>
+    <t>KGEO</t>
+  </si>
+  <si>
+    <t>KFY</t>
+  </si>
+  <si>
+    <t>KBI</t>
+  </si>
+  <si>
+    <t>KCH</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>KMA</t>
+  </si>
+  <si>
+    <t>CNB</t>
+  </si>
+  <si>
+    <t>KPRF</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0165</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0A00</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>B310</t>
+  </si>
+  <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>B315</t>
+  </si>
+  <si>
+    <t>BK310</t>
+  </si>
+  <si>
+    <t>BOP</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>BP1</t>
+  </si>
+  <si>
+    <t>BP2</t>
+  </si>
+  <si>
+    <t>BP2O</t>
+  </si>
+  <si>
+    <t>BP3</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>DP2</t>
+  </si>
+  <si>
+    <t>DP2O</t>
+  </si>
+  <si>
+    <t>DPP</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>E108</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>K302</t>
+  </si>
+  <si>
+    <t>K306</t>
+  </si>
+  <si>
+    <t>K410</t>
+  </si>
+  <si>
+    <t>K411</t>
+  </si>
+  <si>
+    <t>K502</t>
+  </si>
+  <si>
+    <t>K600</t>
+  </si>
+  <si>
+    <t>K603</t>
+  </si>
+  <si>
+    <t>K604</t>
+  </si>
+  <si>
+    <t>K605</t>
+  </si>
+  <si>
+    <t>K607</t>
+  </si>
+  <si>
+    <t>K608</t>
+  </si>
+  <si>
+    <t>K609</t>
+  </si>
+  <si>
+    <t>KA00</t>
+  </si>
+  <si>
+    <t>KB103</t>
+  </si>
+  <si>
+    <t>KB618</t>
+  </si>
+  <si>
+    <t>KKRSP</t>
+  </si>
+  <si>
+    <t>KN117</t>
+  </si>
+  <si>
+    <t>KRSP</t>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>M111</t>
+  </si>
+  <si>
+    <t>M200</t>
+  </si>
+  <si>
+    <t>M300</t>
+  </si>
+  <si>
+    <t>M400</t>
+  </si>
+  <si>
+    <t>MA207</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MK102</t>
+  </si>
+  <si>
+    <t>N117</t>
+  </si>
+  <si>
+    <t>N302</t>
+  </si>
+  <si>
+    <t>N313</t>
+  </si>
+  <si>
+    <t>N412</t>
+  </si>
+  <si>
+    <t>NA14</t>
+  </si>
+  <si>
+    <t>NA23</t>
+  </si>
+  <si>
+    <t>NADP1</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>P115</t>
+  </si>
+  <si>
+    <t>P507</t>
+  </si>
+  <si>
+    <t>P514</t>
+  </si>
+  <si>
+    <t>P521</t>
+  </si>
+  <si>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>P600</t>
+  </si>
+  <si>
+    <t>PAP</t>
+  </si>
+  <si>
+    <t>PB103</t>
+  </si>
+  <si>
+    <t>PD102</t>
+  </si>
+  <si>
+    <t>PD11</t>
+  </si>
+  <si>
+    <t>SZZ01</t>
+  </si>
+  <si>
+    <t>SZZ02</t>
+  </si>
+  <si>
+    <t>SZZ03</t>
+  </si>
+  <si>
+    <t>SZZ05</t>
+  </si>
+  <si>
+    <t>SZZ06</t>
+  </si>
+  <si>
+    <t>SZZ1</t>
+  </si>
+  <si>
+    <t>SZZ13</t>
+  </si>
+  <si>
+    <t>SZZ2</t>
+  </si>
+  <si>
+    <t>SZZ20</t>
+  </si>
+  <si>
+    <t>SZZ21</t>
+  </si>
+  <si>
+    <t>SZZ22</t>
+  </si>
+  <si>
+    <t>SZZ23</t>
+  </si>
+  <si>
+    <t>SZZ2O</t>
+  </si>
+  <si>
+    <t>SZZ30</t>
+  </si>
+  <si>
+    <t>SZZ33</t>
+  </si>
+  <si>
+    <t>SZZ40</t>
+  </si>
+  <si>
+    <t>SZZ41</t>
+  </si>
+  <si>
+    <t>SZZ43</t>
+  </si>
+  <si>
+    <t>SZZ60</t>
+  </si>
+  <si>
+    <t>SZZ63</t>
+  </si>
+  <si>
+    <t>SZZ73</t>
+  </si>
+  <si>
+    <t>SZZA</t>
+  </si>
+  <si>
+    <t>SZZAD</t>
+  </si>
+  <si>
+    <t>SZZB</t>
+  </si>
+  <si>
+    <t>SZZB1</t>
+  </si>
+  <si>
+    <t>SZZB2</t>
+  </si>
+  <si>
+    <t>SZZC1</t>
+  </si>
+  <si>
+    <t>SZZC2</t>
+  </si>
+  <si>
+    <t>SZZFG</t>
+  </si>
+  <si>
+    <t>SZZIV</t>
+  </si>
+  <si>
+    <t>SZZM1</t>
+  </si>
+  <si>
+    <t>SZZM2</t>
+  </si>
+  <si>
+    <t>SZZM3</t>
+  </si>
+  <si>
+    <t>SZZN1</t>
+  </si>
+  <si>
+    <t>SZZN2</t>
+  </si>
+  <si>
+    <t>SZZPP</t>
+  </si>
+  <si>
+    <t>SZZSG</t>
+  </si>
+  <si>
+    <t>SZZSŠ</t>
+  </si>
+  <si>
+    <t>SZZTD</t>
+  </si>
+  <si>
+    <t>SZZTP</t>
+  </si>
+  <si>
+    <t>SZZVP</t>
+  </si>
+  <si>
+    <t>VK - Geodetické metody v geografii</t>
+  </si>
+  <si>
+    <t>VK-Propagace a prezentace v geografii II</t>
+  </si>
+  <si>
+    <t>Hodnotová orientace v rozvoji míst a reg</t>
+  </si>
+  <si>
+    <t>VK - Aplikace ATMEL A</t>
+  </si>
+  <si>
+    <t>VK-Praktikum mikrovlnné techniky C</t>
+  </si>
+  <si>
+    <t>Diplomová práce z biologie</t>
+  </si>
+  <si>
+    <t>Euroregiony a přeshraniční spolupráce</t>
+  </si>
+  <si>
+    <t>Bakalářská práce</t>
+  </si>
+  <si>
+    <t>Virtuální a rozšířená realita</t>
+  </si>
+  <si>
+    <t>Monitor. vyb. prvků atmosf.a hydrosf. II</t>
+  </si>
+  <si>
+    <t>Odborná praxe</t>
+  </si>
+  <si>
+    <t>Bakalářská práce I</t>
+  </si>
+  <si>
+    <t>Bakalářská práce II</t>
+  </si>
+  <si>
+    <t>Bakalářská práce III</t>
+  </si>
+  <si>
+    <t>Diplomová práce</t>
+  </si>
+  <si>
+    <t>Diplomová práce II</t>
+  </si>
+  <si>
+    <t>Human Evolutionary Psychology</t>
+  </si>
+  <si>
+    <t>Sociobiology</t>
+  </si>
+  <si>
+    <t>General Zoology</t>
+  </si>
+  <si>
+    <t>Microfluidic Systems in Bioanalyt. Appl.</t>
+  </si>
+  <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Programování C</t>
+  </si>
+  <si>
+    <t>Anglický jazyk I</t>
+  </si>
+  <si>
+    <t>PVK - Automatizační systémy II</t>
+  </si>
+  <si>
+    <t>Anglický jazyk II</t>
+  </si>
+  <si>
+    <t>Úvod do molekulárních simulací</t>
+  </si>
+  <si>
+    <t>Bakalářská práce z fyziky</t>
+  </si>
+  <si>
+    <t>Bakalářská práce z chemie</t>
+  </si>
+  <si>
+    <t>PVK - Elektronika II</t>
+  </si>
+  <si>
+    <t>Bakalářská práce z biologie</t>
+  </si>
+  <si>
+    <t>PVK-Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>PVK - Mikroprocesorová technika</t>
+  </si>
+  <si>
+    <t>Biochemická cvičení</t>
+  </si>
+  <si>
+    <t>PVK - Automatizované měřící systémy</t>
+  </si>
+  <si>
+    <t>Diplomová práce fyziky</t>
+  </si>
+  <si>
+    <t>Diplomová práce z chemie</t>
+  </si>
+  <si>
+    <t>Obecná botanika</t>
+  </si>
+  <si>
+    <t>Genetika</t>
+  </si>
+  <si>
+    <t>Komplexní reflektivní seminář praxe</t>
+  </si>
+  <si>
+    <t>Anorganická chemie Nmgr.</t>
+  </si>
+  <si>
+    <t>Semestrální projekt</t>
+  </si>
+  <si>
+    <t>Diplomová práce I</t>
+  </si>
+  <si>
+    <t>Diplomová práce III</t>
+  </si>
+  <si>
+    <t>Metody sledování zvířat</t>
+  </si>
+  <si>
+    <t>Molekulární dynamika</t>
+  </si>
+  <si>
+    <t>Matematická analýza III</t>
+  </si>
+  <si>
+    <t>Práce na diplomové práci</t>
+  </si>
+  <si>
+    <t>Studium povrchů pomocí jaderných metod</t>
+  </si>
+  <si>
+    <t>Exkurze</t>
+  </si>
+  <si>
+    <t>Numerické metody</t>
+  </si>
+  <si>
+    <t>Seminář z matematiky</t>
+  </si>
+  <si>
+    <t>PVK - Fyzikálně chemická cvičení B</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>Příprava k bakalářské práci</t>
+  </si>
+  <si>
+    <t>Úvod do chemického inženýrství</t>
+  </si>
+  <si>
+    <t>Průmyslová automatizace v praxi</t>
+  </si>
+  <si>
+    <t>Výzkumná mobilita</t>
+  </si>
+  <si>
+    <t>Anglický jazyk pro doktorandy</t>
+  </si>
+  <si>
+    <t>SZZ - Geografie s didaktikou</t>
+  </si>
+  <si>
+    <t>SZZ - matematika s didaktikou</t>
+  </si>
+  <si>
+    <t>SZZ - biologie s didaktikou</t>
+  </si>
+  <si>
+    <t>Biologie</t>
+  </si>
+  <si>
+    <t>Aplikovaná geografie - Cestovní ruch</t>
+  </si>
+  <si>
+    <t>Aplikovaná fyzika</t>
+  </si>
+  <si>
+    <t>Softwarové systémy</t>
+  </si>
+  <si>
+    <t>Aplikovaná geografie - Krajina a GIS</t>
+  </si>
+  <si>
+    <t>Nanotechnologie</t>
+  </si>
+  <si>
+    <t>Informační technologie</t>
+  </si>
+  <si>
+    <t>Matematika s aplikacemi</t>
+  </si>
+  <si>
+    <t>SZZ - Chemie</t>
+  </si>
+  <si>
+    <t>SZZ - Evropská integrace a EU</t>
+  </si>
+  <si>
+    <t>Počítačové modelování</t>
+  </si>
+  <si>
+    <t>Statistika a zpracování dat</t>
+  </si>
+  <si>
+    <t>Biologie s didaktikou pro SŠ</t>
+  </si>
+  <si>
+    <t>Geografie krajiny a GIS</t>
+  </si>
+  <si>
+    <t>SZZ - Fyzika s didaktikou pro SŠ</t>
+  </si>
+  <si>
+    <t>Chemie a didaktika chemie pro SŠ</t>
+  </si>
+  <si>
+    <t>Geografie venkova a sídel</t>
+  </si>
+  <si>
+    <t>Regionální geografie a cestovní ruch</t>
+  </si>
+  <si>
+    <t>SZZ - Reg. geografie a reg. rozvoj Česka</t>
+  </si>
+  <si>
+    <t>SZZ - Toxikologie a analýza škodlivin</t>
+  </si>
+  <si>
+    <t>SZZ - numerická matematika</t>
+  </si>
+  <si>
+    <t>Geografie pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Biologie pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Fyzika pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Chemie pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Matematika pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Analytická chemie</t>
+  </si>
+  <si>
+    <t>SZZ - Biologie</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>SZZ- Regionální geografie Evropy a světa</t>
+  </si>
+  <si>
+    <t>Toxikologie</t>
+  </si>
+  <si>
+    <t>Matematika s didaktikou pro ZŠ</t>
+  </si>
+  <si>
+    <t>Matematika s didaktikou pro SŠ</t>
+  </si>
+  <si>
+    <t>SZZ - Fyzická geografie</t>
+  </si>
+  <si>
+    <t>Matematika</t>
+  </si>
+  <si>
+    <t>SZZ - Informatika</t>
+  </si>
+  <si>
+    <t>SZZ - Geografie</t>
+  </si>
+  <si>
+    <t>Chemie</t>
+  </si>
+  <si>
+    <t>SZZ - Obecná geografie</t>
+  </si>
+  <si>
+    <t>Matematická informatika</t>
+  </si>
+  <si>
+    <t>Elektronika a elektrotechnika</t>
+  </si>
+  <si>
+    <t>SZZ - Sociální geografie</t>
+  </si>
+  <si>
+    <t>Teoretická informatika a matematika</t>
+  </si>
+  <si>
+    <t>Aplikované datové inženýrství</t>
+  </si>
+  <si>
+    <t>Aplikovaná informatika</t>
+  </si>
+  <si>
+    <t>Programování a softwarové systémy</t>
+  </si>
+  <si>
+    <t>Hardware a počítačové sítě</t>
+  </si>
+  <si>
+    <t>Fyzická geografie a environmentalistika</t>
+  </si>
+  <si>
+    <t>Informatika pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Fyziologie, biochemie a mol. bio. buňky</t>
+  </si>
+  <si>
+    <t>Ap. biolog., ekolog. a ochrana biodiver.</t>
+  </si>
+  <si>
+    <t>Aplikovaná chemie</t>
+  </si>
+  <si>
+    <t>Obecná fyzika a chemie</t>
+  </si>
+  <si>
+    <t>Syntéza, technologie a analýza</t>
+  </si>
+  <si>
+    <t>Nanotechnologie a nanomateriály</t>
+  </si>
+  <si>
+    <t>Aplikovaná informatika: povinný základ</t>
+  </si>
+  <si>
+    <t>Sociální geografie a územní rozvoj</t>
+  </si>
+  <si>
+    <t>Učitelství chemie pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství biologie pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství fyziky pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství matematiky pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství geografie pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství informatiky pro střední školy</t>
+  </si>
+  <si>
+    <t>Teoretické základy datového inženýrství</t>
+  </si>
+  <si>
+    <t>Teoretické základy informatiky</t>
+  </si>
+  <si>
+    <t>Aplikovaná informatika: volitelné bloky</t>
+  </si>
+  <si>
+    <t>Geodetické metody v geografii</t>
+  </si>
+  <si>
+    <t>Propagace a prezentace v geografii II</t>
+  </si>
+  <si>
+    <t>Hodnotová orientace v rozvoji míst a regionů</t>
+  </si>
+  <si>
+    <t>Aplikace ATMEL A</t>
+  </si>
+  <si>
+    <t>Monitoring vybraných prvků atmosféry a hydrosféry II</t>
+  </si>
+  <si>
+    <t>Evoluční psychologie člověka</t>
+  </si>
+  <si>
+    <t>Sociobiologie</t>
+  </si>
+  <si>
+    <t>Microfluidic systems in bioanalytical applications</t>
+  </si>
+  <si>
+    <t>Automatizační systémy II</t>
+  </si>
+  <si>
+    <t>Elektronika II</t>
+  </si>
+  <si>
+    <t>Mikroprocesorová technika</t>
+  </si>
+  <si>
+    <t>Automatizované měřící systémy</t>
+  </si>
+  <si>
+    <t>Fyzikálně chemická cvičení B</t>
+  </si>
+  <si>
+    <t>Chemické inženýrství</t>
+  </si>
+  <si>
+    <t>Geografie s didaktikou pro ZŠ</t>
+  </si>
+  <si>
+    <t>Matematika s didaktikou</t>
+  </si>
+  <si>
+    <t>Biologie s didaktikou</t>
+  </si>
+  <si>
+    <t>Geografie s didaktikou pro SŠ</t>
+  </si>
+  <si>
+    <t>Evropská integrace a Evropská unie</t>
+  </si>
+  <si>
+    <t>Fyzika s didaktikou pro SŠ</t>
+  </si>
+  <si>
+    <t>Regionální geografie a regionální rozvoj Česka</t>
+  </si>
+  <si>
+    <t>Toxikologie a analýza škodlivin</t>
+  </si>
+  <si>
+    <t>Numerická matematika</t>
+  </si>
+  <si>
+    <t>Regionální geografie Evropy a světa</t>
+  </si>
+  <si>
+    <t>Fyzická geografie</t>
+  </si>
+  <si>
+    <t>Informatika</t>
+  </si>
+  <si>
+    <t>Geografie</t>
+  </si>
+  <si>
+    <t>Obecná geografie</t>
+  </si>
+  <si>
+    <t>Sociální geografie</t>
+  </si>
+  <si>
+    <t>Fyziologie, biochemie a molekulární biologie buňky</t>
+  </si>
+  <si>
+    <t>Aplikovaná biologie, ekologie a ochrana biodiverzity</t>
+  </si>
+  <si>
+    <t>Syntéza, technologie a analýza chemických látek a materiálů</t>
+  </si>
+  <si>
+    <t>Nanotechnologie a nanomateriály, jejich příprava a charakterizace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -70,8 +913,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:G167" totalsRowShown="0">
+  <autoFilter ref="A1:G167"/>
   <tableColumns count="7">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -387,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,6 +1265,3160 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C138" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C140" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C142" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C151" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C152" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C154" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C155" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C156" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C160" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C161" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C162" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C163" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C164" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C165" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/results_xlsx/bez_garanta.xlsx
+++ b/results_xlsx/bez_garanta.xlsx
@@ -475,12 +475,12 @@
     <t>Úvod do molekulárních simulací</t>
   </si>
   <si>
+    <t>Bakalářská práce z chemie</t>
+  </si>
+  <si>
     <t>Bakalářská práce z fyziky</t>
   </si>
   <si>
-    <t>Bakalářská práce z chemie</t>
-  </si>
-  <si>
     <t>PVK - Elektronika II</t>
   </si>
   <si>
@@ -499,12 +499,12 @@
     <t>PVK - Automatizované měřící systémy</t>
   </si>
   <si>
+    <t>Diplomová práce z chemie</t>
+  </si>
+  <si>
     <t>Diplomová práce fyziky</t>
   </si>
   <si>
-    <t>Diplomová práce z chemie</t>
-  </si>
-  <si>
     <t>Obecná botanika</t>
   </si>
   <si>
@@ -571,36 +571,36 @@
     <t>Anglický jazyk pro doktorandy</t>
   </si>
   <si>
+    <t>SZZ - matematika s didaktikou</t>
+  </si>
+  <si>
     <t>SZZ - Geografie s didaktikou</t>
   </si>
   <si>
-    <t>SZZ - matematika s didaktikou</t>
-  </si>
-  <si>
     <t>SZZ - biologie s didaktikou</t>
   </si>
   <si>
     <t>Biologie</t>
   </si>
   <si>
+    <t>Aplikovaná fyzika</t>
+  </si>
+  <si>
     <t>Aplikovaná geografie - Cestovní ruch</t>
   </si>
   <si>
-    <t>Aplikovaná fyzika</t>
-  </si>
-  <si>
     <t>Softwarové systémy</t>
   </si>
   <si>
+    <t>Informační technologie</t>
+  </si>
+  <si>
+    <t>Nanotechnologie</t>
+  </si>
+  <si>
     <t>Aplikovaná geografie - Krajina a GIS</t>
   </si>
   <si>
-    <t>Nanotechnologie</t>
-  </si>
-  <si>
-    <t>Informační technologie</t>
-  </si>
-  <si>
     <t>Matematika s aplikacemi</t>
   </si>
   <si>
@@ -616,57 +616,57 @@
     <t>Statistika a zpracování dat</t>
   </si>
   <si>
+    <t>SZZ - Fyzika s didaktikou pro SŠ</t>
+  </si>
+  <si>
+    <t>Chemie a didaktika chemie pro SŠ</t>
+  </si>
+  <si>
+    <t>Geografie krajiny a GIS</t>
+  </si>
+  <si>
     <t>Biologie s didaktikou pro SŠ</t>
   </si>
   <si>
-    <t>Geografie krajiny a GIS</t>
-  </si>
-  <si>
-    <t>SZZ - Fyzika s didaktikou pro SŠ</t>
-  </si>
-  <si>
-    <t>Chemie a didaktika chemie pro SŠ</t>
-  </si>
-  <si>
     <t>Geografie venkova a sídel</t>
   </si>
   <si>
     <t>Regionální geografie a cestovní ruch</t>
   </si>
   <si>
+    <t>SZZ - numerická matematika</t>
+  </si>
+  <si>
+    <t>SZZ - Toxikologie a analýza škodlivin</t>
+  </si>
+  <si>
     <t>SZZ - Reg. geografie a reg. rozvoj Česka</t>
   </si>
   <si>
-    <t>SZZ - Toxikologie a analýza škodlivin</t>
-  </si>
-  <si>
-    <t>SZZ - numerická matematika</t>
+    <t>Matematika pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Biologie pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Chemie pro vzdělávání</t>
+  </si>
+  <si>
+    <t>Fyzika pro vzdělávání</t>
   </si>
   <si>
     <t>Geografie pro vzdělávání</t>
   </si>
   <si>
-    <t>Biologie pro vzdělávání</t>
-  </si>
-  <si>
-    <t>Fyzika pro vzdělávání</t>
-  </si>
-  <si>
-    <t>Chemie pro vzdělávání</t>
-  </si>
-  <si>
-    <t>Matematika pro vzdělávání</t>
+    <t>SZZ - Biologie</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
   </si>
   <si>
     <t>Analytická chemie</t>
   </si>
   <si>
-    <t>SZZ - Biologie</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
     <t>SZZ- Regionální geografie Evropy a světa</t>
   </si>
   <si>
@@ -682,27 +682,27 @@
     <t>SZZ - Fyzická geografie</t>
   </si>
   <si>
+    <t>Chemie</t>
+  </si>
+  <si>
+    <t>SZZ - Geografie</t>
+  </si>
+  <si>
     <t>Matematika</t>
   </si>
   <si>
     <t>SZZ - Informatika</t>
   </si>
   <si>
-    <t>SZZ - Geografie</t>
-  </si>
-  <si>
-    <t>Chemie</t>
+    <t>Matematická informatika</t>
+  </si>
+  <si>
+    <t>Elektronika a elektrotechnika</t>
   </si>
   <si>
     <t>SZZ - Obecná geografie</t>
   </si>
   <si>
-    <t>Matematická informatika</t>
-  </si>
-  <si>
-    <t>Elektronika a elektrotechnika</t>
-  </si>
-  <si>
     <t>SZZ - Sociální geografie</t>
   </si>
   <si>
@@ -739,36 +739,36 @@
     <t>Obecná fyzika a chemie</t>
   </si>
   <si>
+    <t>Nanotechnologie a nanomateriály</t>
+  </si>
+  <si>
     <t>Syntéza, technologie a analýza</t>
   </si>
   <si>
-    <t>Nanotechnologie a nanomateriály</t>
-  </si>
-  <si>
     <t>Aplikovaná informatika: povinný základ</t>
   </si>
   <si>
     <t>Sociální geografie a územní rozvoj</t>
   </si>
   <si>
+    <t>Učitelství fyziky pro střední školy</t>
+  </si>
+  <si>
+    <t>Učitelství geografie pro střední školy</t>
+  </si>
+  <si>
     <t>Učitelství chemie pro střední školy</t>
   </si>
   <si>
     <t>Učitelství biologie pro střední školy</t>
   </si>
   <si>
-    <t>Učitelství fyziky pro střední školy</t>
+    <t>Učitelství informatiky pro střední školy</t>
   </si>
   <si>
     <t>Učitelství matematiky pro střední školy</t>
   </si>
   <si>
-    <t>Učitelství geografie pro střední školy</t>
-  </si>
-  <si>
-    <t>Učitelství informatiky pro střední školy</t>
-  </si>
-  <si>
     <t>Teoretické základy datového inženýrství</t>
   </si>
   <si>
@@ -820,12 +820,12 @@
     <t>Chemické inženýrství</t>
   </si>
   <si>
+    <t>Matematika s didaktikou</t>
+  </si>
+  <si>
     <t>Geografie s didaktikou pro ZŠ</t>
   </si>
   <si>
-    <t>Matematika s didaktikou</t>
-  </si>
-  <si>
     <t>Biologie s didaktikou</t>
   </si>
   <si>
@@ -838,27 +838,27 @@
     <t>Fyzika s didaktikou pro SŠ</t>
   </si>
   <si>
+    <t>Numerická matematika</t>
+  </si>
+  <si>
+    <t>Toxikologie a analýza škodlivin</t>
+  </si>
+  <si>
     <t>Regionální geografie a regionální rozvoj Česka</t>
   </si>
   <si>
-    <t>Toxikologie a analýza škodlivin</t>
-  </si>
-  <si>
-    <t>Numerická matematika</t>
-  </si>
-  <si>
     <t>Regionální geografie Evropy a světa</t>
   </si>
   <si>
     <t>Fyzická geografie</t>
   </si>
   <si>
+    <t>Geografie</t>
+  </si>
+  <si>
     <t>Informatika</t>
   </si>
   <si>
-    <t>Geografie</t>
-  </si>
-  <si>
     <t>Obecná geografie</t>
   </si>
   <si>
@@ -871,10 +871,10 @@
     <t>Aplikovaná biologie, ekologie a ochrana biodiverzity</t>
   </si>
   <si>
+    <t>Nanotechnologie a nanomateriály, jejich příprava a charakterizace</t>
+  </si>
+  <si>
     <t>Syntéza, technologie a analýza chemických látek a materiálů</t>
-  </si>
-  <si>
-    <t>Nanotechnologie a nanomateriály, jejich příprava a charakterizace</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>31</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>47</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>47</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>54</v>
@@ -2191,14 +2191,14 @@
         <v>161</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>54</v>
@@ -2210,7 +2210,7 @@
         <v>162</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>74</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>74</v>
@@ -2739,10 +2739,10 @@
         <v>2023</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>85</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>87</v>
@@ -2951,14 +2951,14 @@
         <v>185</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>87</v>
@@ -2970,7 +2970,7 @@
         <v>186</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>89</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>89</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>90</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>90</v>
@@ -3141,7 +3141,7 @@
         <v>196</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>94</v>
@@ -3217,14 +3217,14 @@
         <v>200</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>94</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>94</v>
@@ -3255,14 +3255,14 @@
         <v>202</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>94</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>97</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>97</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>98</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>98</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>98</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>98</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>99</v>
@@ -3483,14 +3483,14 @@
         <v>214</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>99</v>
@@ -3502,14 +3502,14 @@
         <v>215</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>99</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>100</v>
@@ -3537,17 +3537,17 @@
         <v>2023</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>100</v>
@@ -3556,10 +3556,10 @@
         <v>2023</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>104</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>104</v>
@@ -3670,17 +3670,17 @@
         <v>2023</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>104</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>104</v>
@@ -3708,17 +3708,17 @@
         <v>2023</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>104</v>
@@ -3727,17 +3727,17 @@
         <v>2023</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>104</v>
@@ -3749,14 +3749,14 @@
         <v>225</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>105</v>
@@ -3768,14 +3768,14 @@
         <v>226</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>105</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>105</v>
@@ -3806,7 +3806,7 @@
         <v>228</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3898,10 +3898,10 @@
         <v>2023</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -3917,10 +3917,10 @@
         <v>2023</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -4050,10 +4050,10 @@
         <v>2023</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>120</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>120</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>123</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>123</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>123</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>123</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>123</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>123</v>
